--- a/doubanbook1.xlsx
+++ b/doubanbook1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="997" uniqueCount="985">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="997" uniqueCount="984">
   <si>
     <t>jianjie</t>
   </si>
@@ -40,13 +40,13 @@
   </si>
   <si>
     <t>(
-                    289419人评价
-                )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                追风筝的人
-              </t>
+289419人评价
+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+追风筝的人
+</t>
   </si>
   <si>
     <t>献给长成了大人的孩子们</t>
@@ -56,13 +56,13 @@
   </si>
   <si>
     <t>(
-                    228507人评价
-                )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                小王子
-              </t>
+228509人评价
+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+小王子
+</t>
   </si>
   <si>
     <t>对于“人艰不拆”四个字最彻底的违抗</t>
@@ -72,13 +72,13 @@
   </si>
   <si>
     <t>(
-                    190896人评价
-                )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                围城
-              </t>
+190897人评价
+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+围城
+</t>
   </si>
   <si>
     <t>一碗精心熬制的东野牌鸡汤，拒绝很难</t>
@@ -88,13 +88,13 @@
   </si>
   <si>
     <t>(
-                    243623人评价
-                )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                解忧杂货店
-              </t>
+243626人评价
+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+解忧杂货店
+</t>
   </si>
   <si>
     <t>活着本身就是人生最大的意义</t>
@@ -104,13 +104,13 @@
   </si>
   <si>
     <t>(
-                    135031人评价
-                )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                活着
-              </t>
+135033人评价
+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+活着
+</t>
   </si>
   <si>
     <t>暗夜独行的残破灵魂，爱与恶本就难分难舍</t>
@@ -120,13 +120,13 @@
   </si>
   <si>
     <t>(
-                    195808人评价
-                )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                白夜行
-              </t>
+195809人评价
+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+白夜行
+</t>
   </si>
   <si>
     <t>村上之发轫，多少人的青春启蒙</t>
@@ -136,13 +136,13 @@
   </si>
   <si>
     <t>(
-                    187713人评价
-                )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                挪威的森林
-              </t>
+187713人评价
+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+挪威的森林
+</t>
   </si>
   <si>
     <t>数学好是一种极致的浪漫</t>
@@ -152,13 +152,13 @@
   </si>
   <si>
     <t>(
-                    149185人评价
-                )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                嫌疑人X的献身
-              </t>
+149186人评价
+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+嫌疑人X的献身
+</t>
   </si>
   <si>
     <t>你我不过都是虫子</t>
@@ -168,13 +168,13 @@
   </si>
   <si>
     <t>(
-                    149346人评价
-                )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                三体
-                   : “地球往事”三部曲之一 
+149348人评价
+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+三体
+:“地球往事”三部曲之一
 </t>
   </si>
   <si>
@@ -185,13 +185,13 @@
   </si>
   <si>
     <t>(
-                    135789人评价
-                )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                不能承受的生命之轻
-              </t>
+135789人评价
+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+不能承受的生命之轻
+</t>
   </si>
   <si>
     <t>谁解其中味？</t>
@@ -201,13 +201,13 @@
   </si>
   <si>
     <t>(
-                    123167人评价
-                )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                红楼梦
-              </t>
+123168人评价
+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+红楼梦
+</t>
   </si>
   <si>
     <t>只是青春留下的余烬</t>
@@ -217,13 +217,13 @@
   </si>
   <si>
     <t>(
-                    146913人评价
-                )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                梦里花落知多少
-              </t>
+146914人评价
+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+梦里花落知多少
+</t>
   </si>
   <si>
     <t>一切畅销的因素都有了</t>
@@ -233,13 +233,13 @@
   </si>
   <si>
     <t>(
-                    128070人评价
-                )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                达·芬奇密码
-              </t>
+128070人评价
+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+达·芬奇密码
+</t>
   </si>
   <si>
     <t>在这里看见中国</t>
@@ -249,13 +249,13 @@
   </si>
   <si>
     <t>(
-                    121473人评价
-                )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                看见
-              </t>
+121473人评价
+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+看见
+</t>
   </si>
   <si>
     <t>尼采所谓的永劫复归，一场无始无终的梦魇</t>
@@ -265,13 +265,13 @@
   </si>
   <si>
     <t>(
-                    118464人评价
-                )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                百年孤独
-              </t>
+118466人评价
+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+百年孤独
+</t>
   </si>
   <si>
     <t>车手韩寒的公路小说</t>
@@ -281,13 +281,13 @@
   </si>
   <si>
     <t>(
-                    121116人评价
-                )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                1988：我想和这个世界谈谈
-              </t>
+121116人评价
+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1988：我想和这个世界谈谈
+</t>
   </si>
   <si>
     <t>倒追有风险，入行需谨慎</t>
@@ -297,13 +297,13 @@
   </si>
   <si>
     <t>(
-                    118974人评价
-                )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                何以笙箫默
-              </t>
+118974人评价
+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+何以笙箫默
+</t>
   </si>
   <si>
     <t>中国当代城乡生活全景</t>
@@ -313,13 +313,13 @@
   </si>
   <si>
     <t>(
-                    101473人评价
-                )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                平凡的世界（全三部）
-              </t>
+101473人评价
+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+平凡的世界（全三部）
+</t>
   </si>
   <si>
     <t>灰姑娘在十九世纪</t>
@@ -329,13 +329,13 @@
   </si>
   <si>
     <t>(
-                    107885人评价
-                )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                简爱
-              </t>
+107885人评价
+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+简爱
+</t>
   </si>
   <si>
     <t>羽加迪姆勒维奥萨！</t>
@@ -345,13 +345,13 @@
   </si>
   <si>
     <t>(
-                    87396人评价
-                )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                哈利·波特与魔法石
-              </t>
+87396人评价
+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+哈利·波特与魔法石
+</t>
   </si>
   <si>
     <t>封面剧透</t>
@@ -361,8 +361,8 @@
   </si>
   <si>
     <t>(
-                    99421人评价
-                )</t>
+99422人评价
+)</t>
   </si>
   <si>
     <t>无边的黑暗森林，比第一部更为恢弘壮丽</t>
@@ -372,13 +372,13 @@
   </si>
   <si>
     <t>(
-                    88445人评价
-                )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                三体Ⅱ
-                   : 黑暗森林 
+88446人评价
+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+三体Ⅱ
+:黑暗森林
 </t>
   </si>
   <si>
@@ -389,13 +389,13 @@
   </si>
   <si>
     <t>(
-                    78742人评价
-                )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                飘
-              </t>
+78742人评价
+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+飘
+</t>
   </si>
   <si>
     <t>犀利又温柔，穿过胸口隐隐作痛</t>
@@ -405,13 +405,13 @@
   </si>
   <si>
     <t>(
-                    89022人评价
-                )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                送你一颗子弹
-              </t>
+89022人评价
+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+送你一颗子弹
+</t>
   </si>
   <si>
     <t>终章，何去何从</t>
@@ -421,13 +421,13 @@
   </si>
   <si>
     <t>(
-                    86946人评价
-                )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                三体Ⅲ
-                   : 死神永生 
+86947人评价
+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+三体Ⅲ
+:死神永生
 </t>
   </si>
   <si>
@@ -438,13 +438,13 @@
   </si>
   <si>
     <t>(
-                    92412人评价
-                )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                天才在左 疯子在右
-                   : 国内第一本精神病人访谈手记 
+92414人评价
+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+天才在左疯子在右
+:国内第一本精神病人访谈手记
 </t>
   </si>
   <si>
@@ -455,13 +455,13 @@
   </si>
   <si>
     <t>(
-                    85483人评价
-                )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                傲慢与偏见
-              </t>
+85483人评价
+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+傲慢与偏见
+</t>
   </si>
   <si>
     <t>一段姻缘，需要一座城的倾覆来成全</t>
@@ -471,13 +471,13 @@
   </si>
   <si>
     <t>(
-                    88091人评价
-                )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                倾城之恋
-              </t>
+88091人评价
+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+倾城之恋
+</t>
   </si>
   <si>
     <t>“我是金子，我要发光的”</t>
@@ -487,13 +487,13 @@
   </si>
   <si>
     <t>(
-                    95801人评价
-                )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                三重门
-              </t>
+95801人评价
+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+三重门
+</t>
   </si>
   <si>
     <t>职场丛林生存手册</t>
@@ -503,13 +503,13 @@
   </si>
   <si>
     <t>(
-                    89490人评价
-                )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                杜拉拉升职记
-              </t>
+89490人评价
+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+杜拉拉升职记
+</t>
   </si>
   <si>
     <t>历史本就是一件件“事儿”拼成的</t>
@@ -519,13 +519,13 @@
   </si>
   <si>
     <t>(
-                    82997人评价
-                )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                明朝那些事儿（壹）
-                   : 洪武大帝 
+82997人评价
+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+明朝那些事儿（壹）
+:洪武大帝
 </t>
   </si>
   <si>
@@ -536,13 +536,13 @@
   </si>
   <si>
     <t>(
-                    73652人评价
-                )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                哈利·波特与阿兹卡班的囚徒
-              </t>
+73652人评价
+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+哈利·波特与阿兹卡班的囚徒
+</t>
   </si>
   <si>
     <t>不必追</t>
@@ -552,13 +552,13 @@
   </si>
   <si>
     <t>(
-                    81050人评价
-                )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                目送
-              </t>
+81050人评价
+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+目送
+</t>
   </si>
   <si>
     <t>我已经老了，你呢？</t>
@@ -568,13 +568,13 @@
   </si>
   <si>
     <t>(
-                    85261人评价
-                )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                情人
-              </t>
+85261人评价
+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+情人
+</t>
   </si>
   <si>
     <t>渐入佳境，魔法世界全貌初现</t>
@@ -584,13 +584,13 @@
   </si>
   <si>
     <t>(
-                    71270人评价
-                )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                哈利·波特与密室
-              </t>
+71270人评价
+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+哈利·波特与密室
+</t>
   </si>
   <si>
     <t>见微知著，历史观的颠覆</t>
@@ -600,13 +600,13 @@
   </si>
   <si>
     <t>(
-                    61589人评价
-                )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                万历十五年
-              </t>
+61589人评价
+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+万历十五年
+</t>
   </si>
   <si>
     <t>平淡，坚忍，温情</t>
@@ -616,13 +616,13 @@
   </si>
   <si>
     <t>(
-                    79642人评价
-                )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                我们仨
-              </t>
+79642人评价
+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+我们仨
+</t>
   </si>
   <si>
     <t>如今的小四已经无法评价，往事犹可追</t>
@@ -632,13 +632,13 @@
   </si>
   <si>
     <t>(
-                    90373人评价
-                )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                幻城
-              </t>
+90373人评价
+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+幻城
+</t>
   </si>
   <si>
     <t>青春总是用残忍的方式提醒你它已退场</t>
@@ -648,13 +648,13 @@
   </si>
   <si>
     <t>(
-                    81314人评价
-                )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                致我们终将逝去的青春
-              </t>
+81314人评价
+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+致我们终将逝去的青春
+</t>
   </si>
   <si>
     <t>村上的野望，欢迎来到1Q84年</t>
@@ -664,13 +664,13 @@
   </si>
   <si>
     <t>(
-                    78117人评价
-                )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                1Q84 BOOK 1
-                   : 4月～6月 
+78117人评价
+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1Q84BOOK1
+:4月～6月
 </t>
   </si>
   <si>
@@ -681,13 +681,13 @@
   </si>
   <si>
     <t>(
-                    77485人评价
-                )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                狼图腾
-              </t>
+77485人评价
+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+狼图腾
+</t>
   </si>
   <si>
     <t>一场盛大的意淫</t>
@@ -697,13 +697,13 @@
   </si>
   <si>
     <t>(
-                    78214人评价
-                )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                微微一笑很倾城
-              </t>
+78214人评价
+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+微微一笑很倾城
+</t>
   </si>
   <si>
     <t>独唱的人多了，也便成了团</t>
@@ -713,13 +713,13 @@
   </si>
   <si>
     <t>(
-                    80125人评价
-                )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                独唱团（第一辑）
-              </t>
+80125人评价
+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+独唱团（第一辑）
+</t>
   </si>
   <si>
     <t>三个生命的交逢，灵魅清冷</t>
@@ -729,13 +729,13 @@
   </si>
   <si>
     <t>(
-                    77873人评价
-                )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                莲花
-              </t>
+77873人评价
+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+莲花
+</t>
   </si>
   <si>
     <t>整个系列的分水岭，暗色渐浓</t>
@@ -745,13 +745,13 @@
   </si>
   <si>
     <t>(
-                    71416人评价
-                )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                哈利·波特与火焰杯
-              </t>
+71416人评价
+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+哈利·波特与火焰杯
+</t>
   </si>
   <si>
     <t>如水一般的忧愁与怅惘</t>
@@ -761,13 +761,13 @@
   </si>
   <si>
     <t>(
-                    70319人评价
-                )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                边城
-              </t>
+70319人评价
+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+边城
+</t>
   </si>
   <si>
     <t>有多少人会经历顿悟，就有更少的人甘愿自我放逐</t>
@@ -777,13 +777,13 @@
   </si>
   <si>
     <t>(
-                    71648人评价
-                )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                月亮和六便士
-              </t>
+71648人评价
+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+月亮和六便士
+</t>
   </si>
   <si>
     <t>两条平行线相遇的可能</t>
@@ -793,13 +793,13 @@
   </si>
   <si>
     <t>(
-                    70806人评价
-                )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                向左走·向右走
-              </t>
+70806人评价
+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+向左走·向右走
+</t>
   </si>
   <si>
     <t>生的苦难与伟大</t>
@@ -809,8 +809,8 @@
   </si>
   <si>
     <t>(
-                    72664人评价
-                )</t>
+72664人评价
+)</t>
   </si>
   <si>
     <t>时代烙印鲜明的民族史诗</t>
@@ -820,13 +820,13 @@
   </si>
   <si>
     <t>(
-                    70792人评价
-                )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                穆斯林的葬礼
-              </t>
+70792人评价
+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+穆斯林的葬礼
+</t>
   </si>
   <si>
     <t>戳中了现代人的某些柔软之处</t>
@@ -836,13 +836,13 @@
   </si>
   <si>
     <t>(
-                    78775人评价
-                )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                从你的全世界路过
-                   : 让所有人心动的故事 
+78775人评价
+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+从你的全世界路过
+:让所有人心动的故事
 </t>
   </si>
   <si>
@@ -853,13 +853,13 @@
   </si>
   <si>
     <t>(
-                    84791人评价
-                )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                悲伤逆流成河
-              </t>
+84791人评价
+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+悲伤逆流成河
+</t>
   </si>
   <si>
     <t>无缘由的恨，冰冷彻骨</t>
@@ -869,13 +869,13 @@
   </si>
   <si>
     <t>(
-                    70428人评价
-                )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                恶意
-              </t>
+70428人评价
+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+恶意
+</t>
   </si>
   <si>
     <t>“有情皆孽，无人不冤”</t>
@@ -885,13 +885,13 @@
   </si>
   <si>
     <t>(
-                    56551人评价
-                )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                天龙八部
-              </t>
+56551人评价
+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+天龙八部
+</t>
   </si>
   <si>
     <t>东野圭吾处女作</t>
@@ -901,13 +901,13 @@
   </si>
   <si>
     <t>(
-                    75380人评价
-                )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                放学后
-              </t>
+75380人评价
+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+放学后
+</t>
   </si>
   <si>
     <t>final episode</t>
@@ -917,13 +917,13 @@
   </si>
   <si>
     <t>(
-                    7060人评价
-                )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                Harry Potter and the Deathly Hallows
-              </t>
+7060人评价
+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+HarryPotterandtheDeathlyHallows
+</t>
   </si>
   <si>
     <t>韩少也会借古喻今了</t>
@@ -933,13 +933,13 @@
   </si>
   <si>
     <t>(
-                    73726人评价
-                )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                长安乱
-              </t>
+73726人评价
+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+长安乱
+</t>
   </si>
   <si>
     <t>感情线纷乱的一部。再见邓布利多</t>
@@ -949,13 +949,13 @@
   </si>
   <si>
     <t>(
-                    62540人评价
-                )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                哈利·波特与混血王子
-              </t>
+62540人评价
+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+哈利·波特与混血王子
+</t>
   </si>
   <si>
     <t>冬日暖阳的温煦感</t>
@@ -965,13 +965,13 @@
   </si>
   <si>
     <t>(
-                    71077人评价
-                )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                一个人的好天气
-              </t>
+71077人评价
+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+一个人的好天气
+</t>
   </si>
   <si>
     <t>最平易近人的哲学入门</t>
@@ -981,13 +981,13 @@
   </si>
   <si>
     <t>(
-                    62651人评价
-                )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                苏菲的世界
-              </t>
+62651人评价
+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+苏菲的世界
+</t>
   </si>
   <si>
     <t>余华的悲凉，都在那一碗炒猪肝里了</t>
@@ -997,13 +997,13 @@
   </si>
   <si>
     <t>(
-                    62766人评价
-                )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                许三观卖血记
-              </t>
+62767人评价
+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+许三观卖血记
+</t>
   </si>
   <si>
     <t>当青春遁入歧途</t>
@@ -1013,13 +1013,13 @@
   </si>
   <si>
     <t>(
-                    68417人评价
-                )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                1995-2005夏至未至
-              </t>
+68417人评价
+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1995-2005夏至未至
+</t>
   </si>
   <si>
     <t>关于漂泊的一切</t>
@@ -1029,13 +1029,13 @@
   </si>
   <si>
     <t>(
-                    59971人评价
-                )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                撒哈拉的故事
-              </t>
+59971人评价
+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+撒哈拉的故事
+</t>
   </si>
   <si>
     <t>想象奇诡的大型RPG游戏</t>
@@ -1045,13 +1045,13 @@
   </si>
   <si>
     <t>(
-                    62312人评价
-                )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                盗墓笔记
-                   : 七星鲁王宫 
+62312人评价
+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+盗墓笔记
+:七星鲁王宫
 </t>
   </si>
   <si>
@@ -1062,13 +1062,13 @@
   </si>
   <si>
     <t>(
-                    63108人评价
-                )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                霍乱时期的爱情
-              </t>
+63109人评价
+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+霍乱时期的爱情
+</t>
   </si>
   <si>
     <t>暴脾气的哈利</t>
@@ -1078,13 +1078,13 @@
   </si>
   <si>
     <t>(
-                    59094人评价
-                )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                哈利·波特与凤凰社
-              </t>
+59095人评价
+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+哈利·波特与凤凰社
+</t>
   </si>
   <si>
     <t>爱情才是终极的奢侈品</t>
@@ -1094,13 +1094,13 @@
   </si>
   <si>
     <t>(
-                    44189人评价
-                )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                喜宝
-              </t>
+44190人评价
+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+喜宝
+</t>
   </si>
   <si>
     <t>爱书的人从不孤独</t>
@@ -1110,13 +1110,13 @@
   </si>
   <si>
     <t>(
-                    71799人评价
-                )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                岛上书店
-              </t>
+71802人评价
+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+岛上书店
+</t>
   </si>
   <si>
     <t>大风刮过有话要说</t>
@@ -1126,13 +1126,13 @@
   </si>
   <si>
     <t>(
-                    68118人评价
-                )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                三生三世 十里桃花
-              </t>
+68118人评价
+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+三生三世十里桃花
+</t>
   </si>
   <si>
     <t>背负诅咒的少年，平行世界中的奥德赛</t>
@@ -1142,13 +1142,13 @@
   </si>
   <si>
     <t>(
-                    61807人评价
-                )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                海边的卡夫卡
-              </t>
+61808人评价
+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+海边的卡夫卡
+</t>
   </si>
   <si>
     <t>“历史文化散文”</t>
@@ -1158,13 +1158,13 @@
   </si>
   <si>
     <t>(
-                    64226人评价
-                )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                文化苦旅
-              </t>
+64226人评价
+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+文化苦旅
+</t>
   </si>
   <si>
     <t>完美的复仇，金庸用法语写作应该就是这样</t>
@@ -1174,13 +1174,13 @@
   </si>
   <si>
     <t>(
-                    51448人评价
-                )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                基督山伯爵
-              </t>
+51448人评价
+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+基督山伯爵
+</t>
   </si>
   <si>
     <t>真正懂孩子的教育经</t>
@@ -1190,13 +1190,13 @@
   </si>
   <si>
     <t>(
-                    58520人评价
-                )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                窗边的小豆豆
-              </t>
+58520人评价
+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+窗边的小豆豆
+</t>
   </si>
   <si>
     <t>是非成败转头空</t>
@@ -1206,13 +1206,13 @@
   </si>
   <si>
     <t>(
-                    55188人评价
-                )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                三国演义（全二册）
-              </t>
+55188人评价
+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+三国演义（全二册）
+</t>
   </si>
   <si>
     <t>能把性爱写得如此坦荡的，大概只有王二了</t>
@@ -1222,13 +1222,13 @@
   </si>
   <si>
     <t>(
-                    58177人评价
-                )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                黄金时代
-                   : 时代三部曲 
+58177人评价
+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+黄金时代
+:时代三部曲
 </t>
   </si>
   <si>
@@ -1239,13 +1239,13 @@
   </si>
   <si>
     <t>(
-                    60507人评价
-                )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                悟空传
-                   : 修订版 
+60508人评价
+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+悟空传
+:修订版
 </t>
   </si>
   <si>
@@ -1256,13 +1256,13 @@
   </si>
   <si>
     <t>(
-                    58435人评价
-                )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                兄弟（上）
-              </t>
+58435人评价
+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+兄弟（上）
+</t>
   </si>
   <si>
     <t>近乎暴虐的爱与恨，中文译名后无来者</t>
@@ -1272,13 +1272,13 @@
   </si>
   <si>
     <t>(
-                    57615人评价
-                )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                呼啸山庄
-              </t>
+57615人评价
+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+呼啸山庄
+</t>
   </si>
   <si>
     <t>武侠的壳，政治斗争的核</t>
@@ -1288,13 +1288,13 @@
   </si>
   <si>
     <t>(
-                    50211人评价
-                )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                笑傲江湖（全四册）
-              </t>
+50211人评价
+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+笑傲江湖（全四册）
+</t>
   </si>
   <si>
     <t>成熟的心智通向更完善的自我</t>
@@ -1304,13 +1304,13 @@
   </si>
   <si>
     <t>(
-                    55861人评价
-                )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                少有人走的路
-                   : 心智成熟的旅程 
+55861人评价
+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+少有人走的路
+:心智成熟的旅程
 </t>
   </si>
   <si>
@@ -1321,13 +1321,13 @@
   </si>
   <si>
     <t>(
-                    54001人评价
-                )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                民主的细节
-                   : 美国当代政治观察随笔 
+54001人评价
+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+民主的细节
+:美国当代政治观察随笔
 </t>
   </si>
   <si>
@@ -1338,13 +1338,13 @@
   </si>
   <si>
     <t>(
-                    54193人评价
-                )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                亲爱的安德烈
-              </t>
+54193人评价
+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+亲爱的安德烈
+</t>
   </si>
   <si>
     <t>唯有希望与爱可以驱散阴霾</t>
@@ -1354,13 +1354,13 @@
   </si>
   <si>
     <t>(
-                    53290人评价
-                )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                灿烂千阳
-              </t>
+53290人评价
+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+灿烂千阳
+</t>
   </si>
   <si>
     <t>正是悲壮赋予生活以意义</t>
@@ -1370,13 +1370,13 @@
   </si>
   <si>
     <t>(
-                    54743人评价
-                )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                老人与海
-              </t>
+54743人评价
+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+老人与海
+</t>
   </si>
   <si>
     <t>都市灵修速成</t>
@@ -1386,13 +1386,13 @@
   </si>
   <si>
     <t>(
-                    54477人评价
-                )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                遇见未知的自己
-              </t>
+54477人评价
+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+遇见未知的自己
+</t>
   </si>
   <si>
     <t>一个预言和一个寓言，令人窒息的政治恐怖</t>
@@ -1402,13 +1402,13 @@
   </si>
   <si>
     <t>(
-                    24769人评价
-                )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                一九八四·动物农场
-              </t>
+24769人评价
+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+一九八四·动物农场
+</t>
   </si>
   <si>
     <t>你自己就是最大的宝藏</t>
@@ -1418,13 +1418,13 @@
   </si>
   <si>
     <t>(
-                    53861人评价
-                )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                牧羊少年奇幻之旅
-              </t>
+53860人评价
+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+牧羊少年奇幻之旅
+</t>
   </si>
   <si>
     <t>侦探小说鼻祖</t>
@@ -1434,13 +1434,13 @@
   </si>
   <si>
     <t>(
-                    48738人评价
-                )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                福尔摩斯探案全集（上中下）
-              </t>
+48738人评价
+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+福尔摩斯探案全集（上中下）
+</t>
   </si>
   <si>
     <t>温习了很多奢侈品品牌名称</t>
@@ -1450,13 +1450,13 @@
   </si>
   <si>
     <t>(
-                    60515人评价
-                )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                小时代1.0折纸时代
-              </t>
+60515人评价
+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+小时代1.0折纸时代
+</t>
   </si>
   <si>
     <t>我的生命之光，我的欲望之火</t>
@@ -1466,13 +1466,13 @@
   </si>
   <si>
     <t>(
-                    54361人评价
-                )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                洛丽塔
-              </t>
+54361人评价
+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+洛丽塔
+</t>
   </si>
   <si>
     <t>拉丁美洲圣经</t>
@@ -1482,8 +1482,8 @@
   </si>
   <si>
     <t>(
-                    47641人评价
-                )</t>
+47641人评价
+)</t>
   </si>
   <si>
     <t>情节铺展渐次清明，高潮序曲</t>
@@ -1493,13 +1493,13 @@
   </si>
   <si>
     <t>(
-                    50405人评价
-                )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                1Q84 BOOK 2
-                   : 7月～9月 
+50405人评价
+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1Q84BOOK2
+:7月～9月
 </t>
   </si>
   <si>
@@ -1510,13 +1510,13 @@
   </si>
   <si>
     <t>(
-                    51880人评价
-                )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                素年锦时
-              </t>
+51880人评价
+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+素年锦时
+</t>
   </si>
   <si>
     <t>一场误会中的两段爱情，东方式的含蓄隐忍</t>
@@ -1526,13 +1526,13 @@
   </si>
   <si>
     <t>(
-                    47885人评价
-                )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                情书
-              </t>
+47886人评价
+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+情书
+</t>
   </si>
   <si>
     <t>那时候，去麦当劳约会还很高端……</t>
@@ -1542,13 +1542,13 @@
   </si>
   <si>
     <t>(
-                    52717人评价
-                )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                第一次的亲密接触
-              </t>
+52717人评价
+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+第一次的亲密接触
+</t>
   </si>
   <si>
     <t>至情至性，情大于武</t>
@@ -1558,13 +1558,13 @@
   </si>
   <si>
     <t>(
-                    45833人评价
-                )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                神雕侠侣
-              </t>
+45833人评价
+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+神雕侠侣
+</t>
   </si>
   <si>
     <t>可能是韩寒最好笑的小说</t>
@@ -1574,13 +1574,13 @@
   </si>
   <si>
     <t>(
-                    52108人评价
-                )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                一座城池
-              </t>
+52108人评价
+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+一座城池
+</t>
   </si>
   <si>
     <t>妓女应当拥有爱情吗？</t>
@@ -1590,13 +1590,13 @@
   </si>
   <si>
     <t>(
-                    49044人评价
-                )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                茶花女
-              </t>
+49044人评价
+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+茶花女
+</t>
   </si>
   <si>
     <t>塞林格的麦田里，到处是坠落的青春</t>
@@ -1606,13 +1606,13 @@
   </si>
   <si>
     <t>(
-                    50572人评价
-                )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                麦田里的守望者
-              </t>
+50572人评价
+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+麦田里的守望者
+</t>
   </si>
   <si>
     <t>总有光芒将你引导到清澈的地方</t>
@@ -1622,13 +1622,13 @@
   </si>
   <si>
     <t>(
-                    50604人评价
-                )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                他的国
-              </t>
+50604人评价
+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+他的国
+</t>
   </si>
   <si>
     <t>安妮宝贝第一部长篇，现实与虚构的重合</t>
@@ -1638,13 +1638,13 @@
   </si>
   <si>
     <t>(
-                    48550人评价
-                )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                彼岸花
-              </t>
+48551人评价
+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+彼岸花
+</t>
   </si>
   <si>
     <t>无关风月的非典型青春小说</t>
@@ -1654,13 +1654,13 @@
   </si>
   <si>
     <t>(
-                    47661人评价
-                )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                西决
-              </t>
+47661人评价
+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+西决
+</t>
   </si>
   <si>
     <t>谋杀诡计惊人，波洛的抉择耐人寻味</t>
@@ -1670,13 +1670,13 @@
   </si>
   <si>
     <t>(
-                    37301人评价
-                )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                东方快车谋杀案
-              </t>
+37306人评价
+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+东方快车谋杀案
+</t>
   </si>
   <si>
     <t>初读是色情，再读是爱情，三读是世情</t>
@@ -1686,8 +1686,8 @@
   </si>
   <si>
     <t>(
-                    47074人评价
-                )</t>
+47075人评价
+)</t>
   </si>
   <si>
     <t>只言片语的温暖</t>
@@ -1697,13 +1697,13 @@
   </si>
   <si>
     <t>(
-                    44202人评价
-                )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                这些都是你给我的爱
-              </t>
+44202人评价
+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+这些都是你给我的爱
+</t>
   </si>
   <si>
     <t>平淡叙述下的惊心动魄</t>
@@ -1713,13 +1713,13 @@
   </si>
   <si>
     <t>(
-                    43183人评价
-                )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                这些人，那些事
-              </t>
+43183人评价
+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+这些人，那些事
+</t>
   </si>
   <si>
     <t>八月是一阵季风，生命是一场幻觉</t>
@@ -1729,13 +1729,13 @@
   </si>
   <si>
     <t>(
-                    48183人评价
-                )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                八月未央
-              </t>
+48183人评价
+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+八月未央
+</t>
   </si>
   <si>
     <t>村上同志告诉我们，身体是革命的本钱</t>
@@ -1745,13 +1745,13 @@
   </si>
   <si>
     <t>(
-                    45733人评价
-                )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                当我谈跑步时我谈些什么
-              </t>
+45733人评价
+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+当我谈跑步时我谈些什么
+</t>
   </si>
   <si>
     <t>万国来朝与北京保卫战，燃</t>
@@ -1761,13 +1761,13 @@
   </si>
   <si>
     <t>(
-                    42040人评价
-                )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                明朝那些事儿（贰）
-                   : 万国来朝 
+42040人评价
+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+明朝那些事儿（贰）
+:万国来朝
 </t>
   </si>
   <si>
@@ -1778,13 +1778,13 @@
   </si>
   <si>
     <t>(
-                    44997人评价
-                )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                清醒纪
-              </t>
+44997人评价
+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+清醒纪
+</t>
   </si>
   <si>
     <t>暗恋的极致</t>
@@ -1794,13 +1794,13 @@
   </si>
   <si>
     <t>(
-                    43569人评价
-                )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                一个陌生女人的来信
-              </t>
+43570人评价
+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+一个陌生女人的来信
+</t>
   </si>
   <si>
     <t>会说话的人运气都不会太差</t>
@@ -1810,13 +1810,13 @@
   </si>
   <si>
     <t>(
-                    49164人评价
-                )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                蔡康永的说话之道
-              </t>
+49165人评价
+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+蔡康永的说话之道
+</t>
   </si>
   <si>
     <t>为偷来的影子找到光芒</t>
@@ -1826,13 +1826,13 @@
   </si>
   <si>
     <t>(
-                    50130人评价
-                )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                偷影子的人
-              </t>
+50132人评价
+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+偷影子的人
+</t>
   </si>
   <si>
     <t>真正的片段式写作</t>
@@ -1842,13 +1842,13 @@
   </si>
   <si>
     <t>(
-                    42247人评价
-                )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                陪安东尼度过漫长岁月
-              </t>
+42247人评价
+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+陪安东尼度过漫长岁月
+</t>
   </si>
   <si>
     <t>沉默是沉默者的通行证</t>
@@ -1858,13 +1858,13 @@
   </si>
   <si>
     <t>(
-                    41245人评价
-                )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                沉默的大多数
-                   : 王小波杂文随笔全编 
+41245人评价
+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+沉默的大多数
+:王小波杂文随笔全编
 </t>
   </si>
   <si>
@@ -1875,13 +1875,13 @@
   </si>
   <si>
     <t>(
-                    43202人评价
-                )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                白鹿原
-              </t>
+43202人评价
+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+白鹿原
+</t>
   </si>
   <si>
     <t>那些微尘般漂浮的生活</t>
@@ -1891,13 +1891,13 @@
   </si>
   <si>
     <t>(
-                    44220人评价
-                )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                芒果街上的小屋
-              </t>
+44220人评价
+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+芒果街上的小屋
+</t>
   </si>
   <si>
     <t>资产阶级的道貌岸然</t>
@@ -1907,13 +1907,13 @@
   </si>
   <si>
     <t>(
-                    43346人评价
-                )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                羊脂球
-              </t>
+43346人评价
+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+羊脂球
+</t>
   </si>
   <si>
     <t>最早的荒野求生</t>
@@ -1923,13 +1923,13 @@
   </si>
   <si>
     <t>(
-                    44090人评价
-                )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                鲁滨逊漂流记
-              </t>
+44090人评价
+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+鲁滨逊漂流记
+</t>
   </si>
   <si>
     <t>全剧终</t>
@@ -1939,13 +1939,13 @@
   </si>
   <si>
     <t>(
-                    26940人评价
-                )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                灌篮高手31
-              </t>
+26940人评价
+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+灌篮高手31
+</t>
   </si>
   <si>
     <t>游荡的自由灵魂</t>
@@ -1955,8 +1955,8 @@
   </si>
   <si>
     <t>(
-                    38519人评价
-                )</t>
+38519人评价
+)</t>
   </si>
   <si>
     <t>潜藏于残缺下的美与崇高</t>
@@ -1966,13 +1966,13 @@
   </si>
   <si>
     <t>(
-                    41833人评价
-                )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                巴黎圣母院
-              </t>
+41833人评价
+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+巴黎圣母院
+</t>
   </si>
   <si>
     <t>希望让人自由，电影实在太有名</t>
@@ -1982,13 +1982,13 @@
   </si>
   <si>
     <t>(
-                    38503人评价
-                )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                肖申克的救赎
-              </t>
+38503人评价
+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+肖申克的救赎
+</t>
   </si>
   <si>
     <t>反英雄霍尔顿的一生</t>
@@ -1998,8 +1998,8 @@
   </si>
   <si>
     <t>(
-                    42191人评价
-                )</t>
+42191人评价
+)</t>
   </si>
   <si>
     <t>莉迪亚死了，可他们还不知道</t>
@@ -2009,13 +2009,13 @@
   </si>
   <si>
     <t>(
-                    44428人评价
-                )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                无声告白
-              </t>
+44428人评价
+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+无声告白
+</t>
   </si>
   <si>
     <t>东野说，这是最纯粹的爱情</t>
@@ -2025,8 +2025,8 @@
   </si>
   <si>
     <t>(
-                    38320人评价
-                )</t>
+38320人评价
+)</t>
   </si>
   <si>
     <t>明净单纯</t>
@@ -2036,13 +2036,13 @@
   </si>
   <si>
     <t>(
-                    41064人评价
-                )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                山楂树之恋
-              </t>
+41064人评价
+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+山楂树之恋
+</t>
   </si>
   <si>
     <t>现实不如梦中的圆满</t>
@@ -2052,13 +2052,13 @@
   </si>
   <si>
     <t>(
-                    39326人评价
-                )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                华胥引（全二册）
-              </t>
+39327人评价
+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+华胥引（全二册）
+</t>
   </si>
   <si>
     <t>黑暗世界中的点滴亮光</t>
@@ -2068,13 +2068,13 @@
   </si>
   <si>
     <t>(
-                    39408人评价
-                )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                地下铁
-              </t>
+39408人评价
+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+地下铁
+</t>
   </si>
   <si>
     <t>我们通过孤独与世界沟通</t>
@@ -2084,13 +2084,13 @@
   </si>
   <si>
     <t>(
-                    42010人评价
-                )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                且听风吟
-              </t>
+42010人评价
+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+且听风吟
+</t>
   </si>
   <si>
     <t>激情燃烧的岁月，特殊年代的经典</t>
@@ -2100,13 +2100,13 @@
   </si>
   <si>
     <t>(
-                    42771人评价
-                )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                钢铁是怎样炼成的
-              </t>
+42771人评价
+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+钢铁是怎样炼成的
+</t>
   </si>
   <si>
     <t>蚊子血还是饭黏子？</t>
@@ -2116,13 +2116,13 @@
   </si>
   <si>
     <t>(
-                    39418人评价
-                )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                红玫瑰与白玫瑰
-              </t>
+39418人评价
+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+红玫瑰与白玫瑰
+</t>
   </si>
   <si>
     <t>是“何事秋风悲画扇”，不是西风</t>
@@ -2132,13 +2132,13 @@
   </si>
   <si>
     <t>(
-                    42900人评价
-                )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                人生若只如初见
-                   : 古典诗词的美丽与哀愁 
+42900人评价
+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+人生若只如初见
+:古典诗词的美丽与哀愁
 </t>
   </si>
   <si>
@@ -2149,13 +2149,13 @@
   </si>
   <si>
     <t>(
-                    42777人评价
-                )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                人间失格
-              </t>
+42778人评价
+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+人间失格
+</t>
   </si>
   <si>
     <t>盗墓祖师名不虚传</t>
@@ -2165,13 +2165,13 @@
   </si>
   <si>
     <t>(
-                    39684人评价
-                )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                鬼吹灯之精绝古城
-                   : 之精绝古城 
+39684人评价
+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+鬼吹灯之精绝古城
+:之精绝古城
 </t>
   </si>
   <si>
@@ -2182,13 +2182,13 @@
   </si>
   <si>
     <t>(
-                    35626人评价
-                )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                安徒生童话故事集
-              </t>
+35626人评价
+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+安徒生童话故事集
+</t>
   </si>
   <si>
     <t>新文学的第一声呐喊</t>
@@ -2198,13 +2198,13 @@
   </si>
   <si>
     <t>(
-                    37050人评价
-                )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                呐喊
-              </t>
+37050人评价
+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+呐喊
+</t>
   </si>
   <si>
     <t>自传性作品，团圆只存在幻灭之中</t>
@@ -2214,13 +2214,13 @@
   </si>
   <si>
     <t>(
-                    40620人评价
-                )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                小团圆
-              </t>
+40620人评价
+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+小团圆
+</t>
   </si>
   <si>
     <t>霸道总裁爱上我</t>
@@ -2230,13 +2230,13 @@
   </si>
   <si>
     <t>(
-                    42427人评价
-                )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                泡沫之夏
-              </t>
+42427人评价
+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+泡沫之夏
+</t>
   </si>
   <si>
     <t>理想化</t>
@@ -2246,13 +2246,13 @@
   </si>
   <si>
     <t>(
-                    43426人评价
-                )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                会有天使替我爱你
-              </t>
+43426人评价
+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+会有天使替我爱你
+</t>
   </si>
   <si>
     <t>栗树荫下，我出卖你，你出卖我</t>
@@ -2262,13 +2262,13 @@
   </si>
   <si>
     <t>(
-                    39436人评价
-                )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                1984
-              </t>
+39437人评价
+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1984
+</t>
   </si>
   <si>
     <t>女生间的微妙友谊</t>
@@ -2278,13 +2278,13 @@
   </si>
   <si>
     <t>(
-                    39305人评价
-                )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                年华是无效信
-              </t>
+39305人评价
+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+年华是无效信
+</t>
   </si>
   <si>
     <t>《白夜行》续篇，恶的幻夜吞噬一切</t>
@@ -2294,13 +2294,13 @@
   </si>
   <si>
     <t>(
-                    41719人评价
-                )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                幻夜
-                   : 东野圭吾作品06 
+41719人评价
+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+幻夜
+:东野圭吾作品06
 </t>
   </si>
   <si>
@@ -2311,13 +2311,13 @@
   </si>
   <si>
     <t>(
-                    38597人评价
-                )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                在路上
-              </t>
+38597人评价
+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+在路上
+</t>
   </si>
   <si>
     <t>侠之大者，为国为民</t>
@@ -2327,13 +2327,13 @@
   </si>
   <si>
     <t>(
-                    32822人评价
-                )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                射雕英雄传（全四册）
-              </t>
+32822人评价
+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+射雕英雄传（全四册）
+</t>
   </si>
   <si>
     <t>不拘一格的历史书写</t>
@@ -2343,13 +2343,13 @@
   </si>
   <si>
     <t>(
-                    35820人评价
-                )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                明朝那些事儿（1-9）
-                   : 限量版 
+35821人评价
+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+明朝那些事儿（1-9）
+:限量版
 </t>
   </si>
   <si>
@@ -2360,13 +2360,13 @@
   </si>
   <si>
     <t>(
-                    35413人评价
-                )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                月亮忘記了
-              </t>
+35413人评价
+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+月亮忘記了
+</t>
   </si>
   <si>
     <t>圣人般的王守仁，大娱乐家朱厚照</t>
@@ -2376,13 +2376,13 @@
   </si>
   <si>
     <t>(
-                    35006人评价
-                )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                明朝那些事儿（叁）
-                   : 妖孽宫廷 
+35006人评价
+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+明朝那些事儿（叁）
+:妖孽宫廷
 </t>
   </si>
   <si>
@@ -2393,13 +2393,13 @@
   </si>
   <si>
     <t>(
-                    30159人评价
-                )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                哭泣的骆驼
-              </t>
+30159人评价
+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+哭泣的骆驼
+</t>
   </si>
   <si>
     <t>还在的只有回忆</t>
@@ -2409,13 +2409,13 @@
   </si>
   <si>
     <t>(
-                    38129人评价
-                )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                原来你还在这里
-              </t>
+38129人评价
+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+原来你还在这里
+</t>
   </si>
   <si>
     <t>世钧，我们回不去了</t>
@@ -2425,13 +2425,13 @@
   </si>
   <si>
     <t>(
-                    35919人评价
-                )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                半生缘
-              </t>
+35919人评价
+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+半生缘
+</t>
   </si>
   <si>
     <t>象牙塔里的金庸群侠</t>
@@ -2441,13 +2441,13 @@
   </si>
   <si>
     <t>(
-                    35493人评价
-                )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                此间的少年
-              </t>
+35493人评价
+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+此间的少年
+</t>
   </si>
   <si>
     <t>无所不能的罗斯柴尔德家族</t>
@@ -2457,13 +2457,13 @@
   </si>
   <si>
     <t>(
-                    39452人评价
-                )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                货币战争
-              </t>
+39452人评价
+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+货币战争
+</t>
   </si>
   <si>
     <t>玛丽苏成人童话</t>
@@ -2473,26 +2473,26 @@
   </si>
   <si>
     <t>(
-                    36074人评价
-                )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                佳期如梦
-              </t>
+36074人评价
+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+佳期如梦
+</t>
   </si>
   <si>
     <t>[以色列]尤瓦尔·赫拉利 / 林俊宏 / 中信出版社 / 2014-11-1 / CNY 68.00</t>
   </si>
   <si>
     <t>(
-                    39322人评价
-                )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                人类简史
-                   : 从动物到上帝 
+39322人评价
+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+人类简史
+:从动物到上帝
 </t>
   </si>
   <si>
@@ -2503,13 +2503,13 @@
   </si>
   <si>
     <t>(
-                    34756人评价
-                )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                无人生还
-              </t>
+34756人评价
+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+无人生还
+</t>
   </si>
   <si>
     <t>独居生活之乐</t>
@@ -2519,13 +2519,13 @@
   </si>
   <si>
     <t>(
-                    34678人评价
-                )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                一個人住第5年
-              </t>
+34678人评价
+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+一個人住第5年
+</t>
   </si>
   <si>
     <t>梦，就像黛西家的那一缕绿光</t>
@@ -2535,13 +2535,13 @@
   </si>
   <si>
     <t>(
-                    36533人评价
-                )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                了不起的盖茨比
-              </t>
+36533人评价
+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+了不起的盖茨比
+</t>
   </si>
   <si>
     <t>在时间的缝隙中穿行，然后相遇</t>
@@ -2551,13 +2551,13 @@
   </si>
   <si>
     <t>(
-                    35384人评价
-                )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                时间旅行者的妻子
-              </t>
+35384人评价
+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+时间旅行者的妻子
+</t>
   </si>
   <si>
     <t>七月与安生</t>
@@ -2567,13 +2567,13 @@
   </si>
   <si>
     <t>(
-                    37365人评价
-                )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                告别薇安
-              </t>
+37365人评价
+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+告别薇安
+</t>
   </si>
   <si>
     <t>献给这个常识稀缺的时代</t>
@@ -2583,13 +2583,13 @@
   </si>
   <si>
     <t>(
-                    35284人评价
-                )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                常识
-              </t>
+35284人评价
+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+常识
+</t>
   </si>
   <si>
     <t>王小波与李银河的两地书</t>
@@ -2599,13 +2599,13 @@
   </si>
   <si>
     <t>(
-                    34952人评价
-                )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                爱你就像爱生命
-              </t>
+34952人评价
+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+爱你就像爱生命
+</t>
   </si>
   <si>
     <t>不枉来这世上走一遭</t>
@@ -2615,8 +2615,8 @@
   </si>
   <si>
     <t>(
-                    33501人评价
-                )</t>
+33501人评价
+)</t>
   </si>
   <si>
     <t>现世太苦，不如穿越回去从头来过</t>
@@ -2626,13 +2626,13 @@
   </si>
   <si>
     <t>(
-                    34923人评价
-                )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                步步惊心
-              </t>
+34923人评价
+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+步步惊心
+</t>
   </si>
   <si>
     <t>皮囊之下，骨肉相连</t>
@@ -2642,13 +2642,13 @@
   </si>
   <si>
     <t>(
-                    39218人评价
-                )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                皮囊
-              </t>
+39219人评价
+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+皮囊
+</t>
   </si>
   <si>
     <t>关于遗忘和记得的故事</t>
@@ -2658,13 +2658,13 @@
   </si>
   <si>
     <t>(
-                    35703人评价
-                )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                二三事
-              </t>
+35703人评价
+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+二三事
+</t>
   </si>
   <si>
     <t>失控边缘的下部，但谁说荒诞就是不真</t>
@@ -2674,13 +2674,13 @@
   </si>
   <si>
     <t>(
-                    36989人评价
-                )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                兄弟（下）
-              </t>
+36989人评价
+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+兄弟（下）
+</t>
   </si>
   <si>
     <t>作为一种美学的孤独</t>
@@ -2690,13 +2690,13 @@
   </si>
   <si>
     <t>(
-                    35346人评价
-                )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                孤独六讲
-              </t>
+35346人评价
+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+孤独六讲
+</t>
   </si>
   <si>
     <t>群氓心理剖析</t>
@@ -2706,13 +2706,13 @@
   </si>
   <si>
     <t>(
-                    35611人评价
-                )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                乌合之众
-                   : 大众心理研究 
+35611人评价
+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+乌合之众
+:大众心理研究
 </t>
   </si>
   <si>
@@ -2723,13 +2723,13 @@
   </si>
   <si>
     <t>(
-                    34036人评价
-                )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                盗墓笔记2
-                   : 秦岭神树 
+34036人评价
+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+盗墓笔记2
+:秦岭神树
 </t>
   </si>
   <si>
@@ -2740,13 +2740,13 @@
   </si>
   <si>
     <t>(
-                    32235人评价
-                )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                明朝那些事儿（肆）
-                   : 粉饰太平 
+32235人评价
+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+明朝那些事儿（肆）
+:粉饰太平
 </t>
   </si>
   <si>
@@ -2757,13 +2757,13 @@
   </si>
   <si>
     <t>(
-                    33857人评价
-                )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                失恋33天
-                   : 小说，或是指南 
+33857人评价
+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+失恋33天
+:小说，或是指南
 </t>
   </si>
   <si>
@@ -2774,13 +2774,13 @@
   </si>
   <si>
     <t>(
-                    32334人评价
-                )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                动物农场
-              </t>
+32334人评价
+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+动物农场
+</t>
   </si>
   <si>
     <t>当时只道是寻常</t>
@@ -2790,13 +2790,13 @@
   </si>
   <si>
     <t>(
-                    37299人评价
-                )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                左耳
-              </t>
+37299人评价
+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+左耳
+</t>
   </si>
   <si>
     <t>武侠的解构，流氓的狂欢</t>
@@ -2806,13 +2806,13 @@
   </si>
   <si>
     <t>(
-                    27659人评价
-                )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                鹿鼎记（全五册）
-              </t>
+27659人评价
+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+鹿鼎记（全五册）
+</t>
   </si>
   <si>
     <t>澳洲乱世情</t>
@@ -2822,13 +2822,13 @@
   </si>
   <si>
     <t>(
-                    31674人评价
-                )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                荆棘鸟
-              </t>
+31674人评价
+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+荆棘鸟
+</t>
   </si>
   <si>
     <t>明媚啊明媚</t>
@@ -2838,13 +2838,13 @@
   </si>
   <si>
     <t>(
-                    37913人评价
-                )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                左手倒影，右手年华。
-              </t>
+37913人评价
+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+左手倒影，右手年华。
+</t>
   </si>
   <si>
     <t>青春期习作</t>
@@ -2854,13 +2854,13 @@
   </si>
   <si>
     <t>(
-                    35786人评价
-                )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                零下一度
-              </t>
+35786人评价
+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+零下一度
+</t>
   </si>
   <si>
     <t>属于少年的日子飞驰而过</t>
@@ -2870,13 +2870,13 @@
   </si>
   <si>
     <t>(
-                    35569人评价
-                )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                像少年啦飞驰
-              </t>
+35569人评价
+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+像少年啦飞驰
+</t>
   </si>
   <si>
     <t>中国在路上，非虚构写作所能达到的高度</t>
@@ -2886,13 +2886,13 @@
   </si>
   <si>
     <t>(
-                    30463人评价
-                )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                寻路中国
-                   : 从乡村到工厂的自驾之旅 
+30463人评价
+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+寻路中国
+:从乡村到工厂的自驾之旅
 </t>
   </si>
   <si>
@@ -2903,13 +2903,13 @@
   </si>
   <si>
     <t>(
-                    33608人评价
-                )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                被窝是青春的坟墓
-              </t>
+33608人评价
+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+被窝是青春的坟墓
+</t>
   </si>
   <si>
     <t>平民视角下的台湾大事记</t>
@@ -2919,13 +2919,13 @@
   </si>
   <si>
     <t>(
-                    34792人评价
-                )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                我们台湾这些年
-                   : 一个台湾青年写给13亿大陆同胞的一封家书 
+34792人评价
+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+我们台湾这些年
+:一个台湾青年写给13亿大陆同胞的一封家书
 </t>
   </si>
   <si>
@@ -2936,13 +2936,13 @@
   </si>
   <si>
     <t>(
-                    33952人评价
-                )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                1Q84 BOOK 3
-                   : 10月～12月 
+33952人评价
+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1Q84BOOK3
+:10月～12月
 </t>
   </si>
   <si>
@@ -2953,13 +2953,13 @@
   </si>
   <si>
     <t>(
-                    33177人评价
-                )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                关于莉莉周的一切
-              </t>
+33177人评价
+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+关于莉莉周的一切
+</t>
   </si>
   <si>
     <t>满满的回忆</t>
@@ -2969,13 +2969,13 @@
   </si>
   <si>
     <t>(
-                    27737人评价
-                )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                机器猫哆啦A梦23
-              </t>
+27737人评价
+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+机器猫哆啦A梦23
+</t>
   </si>
   <si>
     <t>哀其不幸，怒其不争</t>
@@ -2985,13 +2985,13 @@
   </si>
   <si>
     <t>(
-                    30180人评价
-                )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                阿Q正传
-                   : 好 
+30180人评价
+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+阿Q正传
+:好
 </t>
   </si>
   <si>
@@ -3002,13 +3002,13 @@
   </si>
   <si>
     <t>(
-                    34023人评价
-                )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                乖，摸摸头
-              </t>
+34024人评价
+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+乖，摸摸头
+</t>
   </si>
   <si>
     <t>两代人的成长与救赎</t>
@@ -3018,26 +3018,26 @@
   </si>
   <si>
     <t>(
-                    30637人评价
-                )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                大地之灯
-              </t>
+30637人评价
+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+大地之灯
+</t>
   </si>
   <si>
     <t>[英]克莱儿·麦克福尔 / 付强 / 百花洲文艺出版社 / 2015-6-1 / 36.00</t>
   </si>
   <si>
     <t>(
-                    40998人评价
-                )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                摆渡人
-              </t>
+40999人评价
+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+摆渡人
+</t>
   </si>
   <si>
     <t>永远生猛下去</t>
@@ -3047,13 +3047,13 @@
   </si>
   <si>
     <t>(
-                    29904人评价
-                )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                黄金时代
-              </t>
+29904人评价
+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+黄金时代
+</t>
   </si>
   <si>
     <t>内忧外患之际，你方唱罢我登场</t>
@@ -3063,13 +3063,13 @@
   </si>
   <si>
     <t>(
-                    29325人评价
-                )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                明朝那些事儿（伍）
-                   : 帝国飘摇 
+29326人评价
+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+明朝那些事儿（伍）
+:帝国飘摇
 </t>
   </si>
   <si>
@@ -3080,13 +3080,13 @@
   </si>
   <si>
     <t>(
-                    31973人评价
-                )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                骆驼祥子
-              </t>
+31973人评价
+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+骆驼祥子
+</t>
   </si>
   <si>
     <t>逼近死亡的云顶天宫之旅</t>
@@ -3096,13 +3096,13 @@
   </si>
   <si>
     <t>(
-                    30274人评价
-                )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                盗墓笔记3
-                   : 云顶天宫 
+30274人评价
+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+盗墓笔记3
+:云顶天宫
 </t>
   </si>
   <si>
@@ -3113,13 +3113,13 @@
   </si>
   <si>
     <t>(
-                    29682人评价
-                )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                麦琪的礼物
-                   : 欧·亨利短篇小说经典 
+29682人评价
+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+麦琪的礼物
+:欧·亨利短篇小说经典
 </t>
   </si>
   <si>
@@ -3130,13 +3130,13 @@
   </si>
   <si>
     <t>(
-                    28792人评价
-                )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                格林童话全集
-              </t>
+28792人评价
+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+格林童话全集
+</t>
   </si>
   <si>
     <t>读书的方法论</t>
@@ -3146,13 +3146,13 @@
   </si>
   <si>
     <t>(
-                    31337人评价
-                )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                如何阅读一本书
-              </t>
+31337人评价
+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+如何阅读一本书
+</t>
   </si>
   <si>
     <t>疏离而断裂，生活的冷与干涩</t>
@@ -3162,13 +3162,13 @@
   </si>
   <si>
     <t>(
-                    32116人评价
-                )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                当我们谈论爱情时我们在谈论什么
-              </t>
+32117人评价
+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+当我们谈论爱情时我们在谈论什么
+</t>
   </si>
   <si>
     <t>一个傻子的土司家族传奇</t>
@@ -3178,13 +3178,13 @@
   </si>
   <si>
     <t>(
-                    30000人评价
-                )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                尘埃落定
-              </t>
+30000人评价
+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+尘埃落定
+</t>
   </si>
   <si>
     <t>暴食与减肥的桥段印象深刻</t>
@@ -3194,13 +3194,13 @@
   </si>
   <si>
     <t>(
-                    30807人评价
-                )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                水仙已乘鲤鱼去
-              </t>
+30807人评价
+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+水仙已乘鲤鱼去
+</t>
   </si>
   <si>
     <t>窥见美国社会的一扇窗</t>
@@ -3210,13 +3210,13 @@
   </si>
   <si>
     <t>(
-                    27952人评价
-                )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                历史深处的忧虑
-                   : 近距离看美国之一 
+27952人评价
+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+历史深处的忧虑
+:近距离看美国之一
 </t>
   </si>
   <si>
@@ -3224,8 +3224,8 @@
   </si>
   <si>
     <t>(
-                    29665人评价
-                )</t>
+29666人评价
+)</t>
   </si>
   <si>
     <t>淳朴自贡少年十里洋场欲海翻波为哪般</t>
@@ -3235,13 +3235,13 @@
   </si>
   <si>
     <t>(
-                    34956人评价
-                )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                小时代2.0虚铜时代
-              </t>
+34956人评价
+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+小时代2.0虚铜时代
+</t>
   </si>
   <si>
     <t>曹七巧就像希克厉，一个扭曲的英雄</t>
@@ -3251,13 +3251,13 @@
   </si>
   <si>
     <t>(
-                    29150人评价
-                )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                金锁记
-              </t>
+29150人评价
+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+金锁记
+</t>
   </si>
   <si>
     <t>原作名切题</t>
@@ -3267,13 +3267,13 @@
   </si>
   <si>
     <t>(
-                    27973人评价
-                )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                你好，旧时光（上 下）
-              </t>
+27973人评价
+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+你好，旧时光（上下）
+</t>
   </si>
   <si>
     <t>自毁而偏执的东霓</t>
@@ -3283,13 +3283,13 @@
   </si>
   <si>
     <t>(
-                    29545人评价
-                )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                东霓
-              </t>
+29545人评价
+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+东霓
+</t>
   </si>
   <si>
     <t>热血，梦想，希望</t>
@@ -3299,13 +3299,13 @@
   </si>
   <si>
     <t>(
-                    26157人评价
-                )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                海贼王
-                   : ONE PIECE 
+26158人评价
+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+海贼王
+:ONEPIECE
 </t>
   </si>
   <si>
@@ -3316,13 +3316,13 @@
   </si>
   <si>
     <t>(
-                    28189人评价
-                )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                那些回不去的年少时光
-              </t>
+28190人评价
+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+那些回不去的年少时光
+</t>
   </si>
   <si>
     <t>我们现在怎样做母亲</t>
@@ -3332,13 +3332,13 @@
   </si>
   <si>
     <t>(
-                    28098人评价
-                )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                孩子你慢慢来
-              </t>
+28098人评价
+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+孩子你慢慢来
+</t>
   </si>
   <si>
     <t>定做一个刻着“不过如此”的章，盖在封面上</t>
@@ -3348,13 +3348,13 @@
   </si>
   <si>
     <t>(
-                    28052人评价
-                )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                橙
-                   : 陪安东尼度过漫长岁月 Ⅱ 
+28052人评价
+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+橙
+:陪安东尼度过漫长岁月Ⅱ
 </t>
   </si>
   <si>
@@ -3365,13 +3365,13 @@
   </si>
   <si>
     <t>(
-                    26938人评价
-                )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                悲惨世界（上中下）
-              </t>
+26938人评价
+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+悲惨世界（上中下）
+</t>
   </si>
   <si>
     <t>蛇沼鬼城，坑越挖越多了</t>
@@ -3381,13 +3381,13 @@
   </si>
   <si>
     <t>(
-                    28097人评价
-                )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                盗墓笔记4
-                   : 蛇沼鬼城 
+28097人评价
+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+盗墓笔记4
+:蛇沼鬼城
 </t>
   </si>
   <si>
@@ -3398,13 +3398,13 @@
   </si>
   <si>
     <t>(
-                    29616人评价
-                )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                巴别塔之犬
-              </t>
+29616人评价
+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+巴别塔之犬
+</t>
   </si>
   <si>
     <t>恋味癖谋杀案</t>
@@ -3414,13 +3414,13 @@
   </si>
   <si>
     <t>(
-                    27474人评价
-                )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                香水
-                   : 一个谋杀犯的故事 
+27474人评价
+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+香水
+:一个谋杀犯的故事
 </t>
   </si>
   <si>
@@ -3431,8 +3431,8 @@
   </si>
   <si>
     <t>(
-                    27414人评价
-                )</t>
+27415人评价
+)</t>
   </si>
   <si>
     <t>生活就是个缓慢受锤的过程，至少还可以特立独行</t>
@@ -3442,39 +3442,39 @@
   </si>
   <si>
     <t>(
-                    27536人评价
-                )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                一只特立独行的猪
-              </t>
+27536人评价
+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+一只特立独行的猪
+</t>
   </si>
   <si>
     <t>[法] 阿尔贝·加缪 / 柳鸣九 / 上海译文出版社 / 2010-9 / 22.00元</t>
   </si>
   <si>
     <t>(
-                    29994人评价
-                )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                局外人
-              </t>
+29996人评价
+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+局外人
+</t>
   </si>
   <si>
     <t>【英】蕾秋·乔伊斯 / 黄妙瑜 / 北京联合出版公司 / 2013-9-1 / 32.80</t>
   </si>
   <si>
     <t>(
-                    30151人评价
-                )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                一个人的朝圣
-              </t>
+30152人评价
+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+一个人的朝圣
+</t>
   </si>
   <si>
     <t>完美主义者的最高形态</t>
@@ -3484,13 +3484,13 @@
   </si>
   <si>
     <t>(
-                    26966人评价
-                )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                史蒂夫·乔布斯传
-              </t>
+26966人评价
+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+史蒂夫·乔布斯传
+</t>
   </si>
   <si>
     <t>每一座城市都只在想象中耸立，又在描述中坍圮</t>
@@ -3500,13 +3500,13 @@
   </si>
   <si>
     <t>(
-                    26532人评价
-                )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                看不见的城市
-              </t>
+26532人评价
+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+看不见的城市
+</t>
   </si>
   <si>
     <t>现代上海史诗</t>
@@ -3516,13 +3516,13 @@
   </si>
   <si>
     <t>(
-                    28254人评价
-                )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                长恨歌
-              </t>
+28254人评价
+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+长恨歌
+</t>
   </si>
   <si>
     <t>不悔梦归处 只恨太匆匆</t>
@@ -3532,13 +3532,13 @@
   </si>
   <si>
     <t>(
-                    27158人评价
-                )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                匆匆那年（上下）
-              </t>
+27158人评价
+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+匆匆那年（上下）
+</t>
   </si>
   <si>
     <t>大学生活启蒙读物</t>
@@ -3548,13 +3548,13 @@
   </si>
   <si>
     <t>(
-                    29879人评价
-                )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                草样年华
-                   : 北X大的故事 
+29879人评价
+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+草样年华
+:北X大的故事
 </t>
   </si>
   <si>
@@ -3565,13 +3565,13 @@
   </si>
   <si>
     <t>(
-                    26364人评价
-                )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                往事并不如烟
-              </t>
+26364人评价
+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+往事并不如烟
+</t>
   </si>
   <si>
     <t>你们不会彼此遗忘。只会彼此消失</t>
@@ -3581,13 +3581,13 @@
   </si>
   <si>
     <t>(
-                    27497人评价
-                )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                蔷薇岛屿
-              </t>
+27497人评价
+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+蔷薇岛屿
+</t>
   </si>
   <si>
     <t>忧郁的温暖</t>
@@ -3597,13 +3597,13 @@
   </si>
   <si>
     <t>(
-                    25946人评价
-                )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                我的路
-              </t>
+25946人评价
+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+我的路
+</t>
   </si>
   <si>
     <t>复杂矛盾的日本民族</t>
@@ -3613,13 +3613,13 @@
   </si>
   <si>
     <t>(
-                    27932人评价
-                )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                菊与刀
-                   : 日本文化的类型 
+27932人评价
+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+菊与刀
+:日本文化的类型
 </t>
   </si>
   <si>
@@ -3630,21 +3630,21 @@
   </si>
   <si>
     <t>(
-                    26162人评价
-                )</t>
+26162人评价
+)</t>
   </si>
   <si>
     <t>[英]毛姆 / 周煦良 / 上海译文出版社 / 2007-3 / 18.00元</t>
   </si>
   <si>
     <t>(
-                    26523人评价
-                )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                刀锋
-              </t>
+26523人评价
+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+刀锋
+</t>
   </si>
   <si>
     <t>量子之外，没有真相</t>
@@ -3654,13 +3654,13 @@
   </si>
   <si>
     <t>(
-                    26376人评价
-                )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                球状闪电
-              </t>
+26377人评价
+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+球状闪电
+</t>
   </si>
   <si>
     <t>鸡汤文始祖</t>
@@ -3670,13 +3670,13 @@
   </si>
   <si>
     <t>(
-                    29655人评价
-                )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                谁动了我的奶酪？
-              </t>
+29655人评价
+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+谁动了我的奶酪？
+</t>
   </si>
   <si>
     <t>淡泊，超脱</t>
@@ -3686,13 +3686,13 @@
   </si>
   <si>
     <t>(
-                    25375人评价
-                )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                飞鸟集
-              </t>
+25376人评价
+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+飞鸟集
+</t>
   </si>
   <si>
     <t>抵不过时间</t>
@@ -3702,13 +3702,13 @@
   </si>
   <si>
     <t>(
-                    25552人评价
-                )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                七夜雪
-              </t>
+25552人评价
+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+七夜雪
+</t>
   </si>
   <si>
     <t>一见嘉遇误终身</t>
@@ -3718,13 +3718,13 @@
   </si>
   <si>
     <t>(
-                    27503人评价
-                )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                曾有一个人，爱我如生命
-              </t>
+27503人评价
+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+曾有一个人，爱我如生命
+</t>
   </si>
   <si>
     <t>那些年错过的大雨</t>
@@ -3734,13 +3734,13 @@
   </si>
   <si>
     <t>(
-                    26173人评价
-                )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                那些年，我们一起追的女孩
-              </t>
+26174人评价
+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+那些年，我们一起追的女孩
+</t>
   </si>
   <si>
     <t>静美又残酷，无限柔软的川端</t>
@@ -3750,13 +3750,13 @@
   </si>
   <si>
     <t>(
-                    26583人评价
-                )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                伊豆的舞女
-              </t>
+26583人评价
+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+伊豆的舞女
+</t>
   </si>
   <si>
     <t>交叉平行蒙太奇</t>
@@ -3766,13 +3766,13 @@
   </si>
   <si>
     <t>(
-                    25500人评价
-                )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                世界尽头与冷酷仙境
-              </t>
+25500人评价
+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+世界尽头与冷酷仙境
+</t>
   </si>
   <si>
     <t>百般曲折，终成眷属</t>
@@ -3782,8 +3782,8 @@
   </si>
   <si>
     <t>(
-                    24917人评价
-                )</t>
+24917人评价
+)</t>
   </si>
   <si>
     <t>别被封面骗了</t>
@@ -3793,13 +3793,13 @@
   </si>
   <si>
     <t>(
-                    26261人评价
-                )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                最初的爱情 最后的仪式
-              </t>
+26261人评价
+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+最初的爱情最后的仪式
+</t>
   </si>
   <si>
     <t>恐虫症慎入</t>
@@ -3809,13 +3809,13 @@
   </si>
   <si>
     <t>(
-                    26426人评价
-                )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                鬼吹灯之云南虫谷
-              </t>
+26426人评价
+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+鬼吹灯之云南虫谷
+</t>
   </si>
   <si>
     <t>大明崇祯万万年</t>
@@ -3825,13 +3825,13 @@
   </si>
   <si>
     <t>(
-                    24478人评价
-                )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                明朝那些事儿（柒）：大结局
-                   : 千万明矾共迎完结篇，三年来最难舍的告别 
+24478人评价
+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+明朝那些事儿（柒）：大结局
+:千万明矾共迎完结篇，三年来最难舍的告别
 </t>
   </si>
   <si>
@@ -3839,13 +3839,13 @@
   </si>
   <si>
     <t>(
-                    25458人评价
-                )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                把时间当作朋友
-                   : 运用心智获得解放 
+25458人评价
+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+把时间当作朋友
+:运用心智获得解放
 </t>
   </si>
   <si>
@@ -3856,13 +3856,13 @@
   </si>
   <si>
     <t>(
-                    28044人评价
-                )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                秘密
-              </t>
+28044人评价
+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+秘密
+</t>
   </si>
   <si>
     <t>科学与宗教的大乱斗</t>
@@ -3872,13 +3872,13 @@
   </si>
   <si>
     <t>(
-                    25682人评价
-                )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                天使与魔鬼
-              </t>
+25682人评价
+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+天使与魔鬼
+</t>
   </si>
   <si>
     <t>解放思想，实事求是</t>
@@ -3888,13 +3888,13 @@
   </si>
   <si>
     <t>(
-                    26555人评价
-                )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                拆掉思维里的墙
-                   : 原来我还可以这样活 
+26555人评价
+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+拆掉思维里的墙
+:原来我还可以这样活
 </t>
   </si>
   <si>
@@ -3905,13 +3905,13 @@
   </si>
   <si>
     <t>(
-                    24518人评价
-                )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                明朝那些事儿（陆）
-                   : 日暮西山 
+24518人评价
+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+明朝那些事儿（陆）
+:日暮西山
 </t>
   </si>
   <si>
@@ -3922,13 +3922,13 @@
   </si>
   <si>
     <t>(
-                    25295人评价
-                )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                佛祖在一号线
-              </t>
+25295人评价
+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+佛祖在一号线
+</t>
   </si>
   <si>
     <t>不识张郎是张郎</t>
@@ -3938,13 +3938,13 @@
   </si>
   <si>
     <t>(
-                    24971人评价
-                )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                倚天屠龙记(共四册)
-              </t>
+24971人评价
+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+倚天屠龙记(共四册)
+</t>
   </si>
   <si>
     <t>治愈</t>
@@ -3954,13 +3954,13 @@
   </si>
   <si>
     <t>(
-                    23664人评价
-                )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                阿狸·梦之城堡
-              </t>
+23664人评价
+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+阿狸·梦之城堡
+</t>
   </si>
   <si>
     <t>杜拉拉跳槽记</t>
@@ -3970,13 +3970,13 @@
   </si>
   <si>
     <t>(
-                    27204人评价
-                )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                杜拉拉2华年似水
-                   : 《杜拉拉升职记》第二部 
+27204人评价
+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+杜拉拉2华年似水
+:《杜拉拉升职记》第二部
 </t>
   </si>
   <si>
@@ -3986,14 +3986,9 @@
     <t>落落 / 长江文艺出版社 / 2007-12 / 22.00</t>
   </si>
   <si>
-    <t>(
-                    26377人评价
-                )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                不朽
-              </t>
+    <t xml:space="preserve">
+不朽
+</t>
   </si>
 </sst>
 </file>
@@ -4366,8 +4361,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E251"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
-      <selection activeCell="C155" sqref="C155"/>
+    <sheetView tabSelected="1" topLeftCell="C20" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4375,8 +4370,8 @@
     <col min="1" max="1" width="5.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="46.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="78.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="55.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="127" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="68.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
@@ -8616,10 +8611,10 @@
         <v>982</v>
       </c>
       <c r="D251" t="s">
+        <v>901</v>
+      </c>
+      <c r="E251" t="s">
         <v>983</v>
-      </c>
-      <c r="E251" t="s">
-        <v>984</v>
       </c>
     </row>
   </sheetData>
